--- a/進捗/10月学習計画書_张咏晴.xlsx
+++ b/進捗/10月学習計画書_张咏晴.xlsx
@@ -260,12 +260,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -290,13 +290,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -305,7 +298,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,7 +319,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,29 +416,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,57 +424,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -436,14 +437,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -459,7 +452,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,31 +473,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,150 +648,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,7 +695,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,13 +730,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,22 +758,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,10 +781,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -806,16 +793,16 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -827,116 +814,116 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -955,12 +942,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -975,6 +962,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1310,7 +1300,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -1392,8 +1382,10 @@
       <c r="F4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="G4" s="13">
+        <v>1</v>
+      </c>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" ht="19.5" spans="1:8">
       <c r="A5" s="9">
@@ -1412,11 +1404,13 @@
       <c r="E5" s="11">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:8">
       <c r="A6" s="9">
@@ -1438,8 +1432,8 @@
       <c r="F6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:8">
       <c r="A7" s="9">
@@ -1461,8 +1455,8 @@
       <c r="F7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:8">
       <c r="A8" s="9">
@@ -1484,14 +1478,14 @@
       <c r="F8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:8">
-      <c r="A9" s="15">
+      <c r="A9" s="16">
         <v>44114</v>
       </c>
-      <c r="B9" s="16" t="str">
+      <c r="B9" s="17" t="str">
         <f t="shared" si="0"/>
         <v>星期六</v>
       </c>
@@ -1499,14 +1493,14 @@
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:8">
-      <c r="A10" s="15">
+      <c r="A10" s="16">
         <v>44115</v>
       </c>
-      <c r="B10" s="16" t="str">
+      <c r="B10" s="17" t="str">
         <f t="shared" si="0"/>
         <v>星期日</v>
       </c>
@@ -1514,8 +1508,8 @@
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:8">
       <c r="A11" s="9">
@@ -1537,8 +1531,8 @@
       <c r="F11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:8">
       <c r="A12" s="9">
@@ -1560,8 +1554,8 @@
       <c r="F12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:8">
       <c r="A13" s="9">
@@ -1583,8 +1577,8 @@
       <c r="F13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:8">
       <c r="A14" s="9">
@@ -1606,8 +1600,8 @@
       <c r="F14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:8">
       <c r="A15" s="9">
@@ -1629,8 +1623,8 @@
       <c r="F15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:8">
       <c r="A16" s="9">
@@ -1644,8 +1638,8 @@
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:8">
       <c r="A17" s="9">
@@ -1659,8 +1653,8 @@
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:8">
       <c r="A18" s="9">
@@ -1682,8 +1676,8 @@
       <c r="F18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:8">
       <c r="A19" s="9">
@@ -1705,8 +1699,8 @@
       <c r="F19" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:8">
       <c r="A20" s="9">
@@ -1728,8 +1722,8 @@
       <c r="F20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:8">
       <c r="A21" s="9">
@@ -1751,8 +1745,8 @@
       <c r="F21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:8">
       <c r="A22" s="9">
@@ -1774,8 +1768,8 @@
       <c r="F22" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:8">
       <c r="A23" s="9">
@@ -1789,8 +1783,8 @@
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:8">
       <c r="A24" s="9">
@@ -1804,8 +1798,8 @@
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:8">
       <c r="A25" s="9">
@@ -1827,8 +1821,8 @@
       <c r="F25" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:8">
       <c r="A26" s="9">
@@ -1850,8 +1844,8 @@
       <c r="F26" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:8">
       <c r="A27" s="9">
@@ -1873,8 +1867,8 @@
       <c r="F27" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:8">
       <c r="A28" s="9">
@@ -1896,8 +1890,8 @@
       <c r="F28" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:8">
       <c r="A29" s="9">
@@ -1919,8 +1913,8 @@
       <c r="F29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:8">
       <c r="A30" s="9">
@@ -1934,8 +1928,8 @@
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1"/>

--- a/進捗/10月学習計画書_张咏晴.xlsx
+++ b/進捗/10月学習計画書_张咏晴.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18930" windowHeight="6330"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="学習計画書" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>10月学習計画書</t>
   </si>
@@ -51,6 +51,20 @@
   </si>
   <si>
     <t>学習計画検討</t>
+  </si>
+  <si>
+    <r>
+      <t>【尚硅谷】NodeJS全套教程　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1-10・練習</t>
+    </r>
   </si>
   <si>
     <r>
@@ -61,37 +75,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>【尚硅谷】NodeJS全套教程　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>1-10・練習</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>【尚硅谷】NodeJS全套教程　11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>-20</t>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 1-15</t>
     </r>
     <r>
       <rPr>
@@ -104,7 +88,7 @@
     </r>
   </si>
   <si>
-    <t>API作成(crud)</t>
+    <t>【尚硅谷】NodeJS全套教程　11-15・練習——完成</t>
   </si>
   <si>
     <r>
@@ -115,16 +99,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>【尚硅谷】React教程　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>1-10</t>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 16-30</t>
     </r>
     <r>
       <rPr>
@@ -145,7 +120,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>【尚硅谷】React教程　21-30</t>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 31-39</t>
     </r>
     <r>
       <rPr>
@@ -158,6 +133,9 @@
     </r>
   </si>
   <si>
+    <t>API作成(crud)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -166,7 +144,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>【尚硅谷】React教程　31-40</t>
+      <t>React系列课程从零基础到项目开发实战 1-21</t>
     </r>
     <r>
       <rPr>
@@ -187,16 +165,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>【尚硅谷】React教程　4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>1-45</t>
+      <t>React系列课程从零基础到项目开发实战 22-47</t>
     </r>
     <r>
       <rPr>
@@ -209,6 +178,48 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>React系列课程从零基础到项目开发实战 48-63</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・練習</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>React系列课程从零基础到项目开发实战 64-83</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・練習</t>
+    </r>
+  </si>
+  <si>
     <t>復習</t>
   </si>
   <si>
@@ -252,6 +263,18 @@
   </si>
   <si>
     <t>https://edu.aliyun.com/course/469?spm=5176.10731542.0.0.1d7d4d48STKsLI</t>
+  </si>
+  <si>
+    <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=awdmh8ePovU&amp;list=PL9nxfq1tlKKlcx425yrc-17LiY0lcQBeC&amp;index=20</t>
+  </si>
+  <si>
+    <t>React系列课程从零基础到项目开发实战</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZXg4W7qm-uw&amp;list=PL9nxfq1tlKKnza3MPogWqaYIPtdW_G2lF</t>
   </si>
 </sst>
 </file>
@@ -259,11 +282,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -290,7 +313,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -305,21 +328,120 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,116 +456,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
-      <charset val="128"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -452,7 +475,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,181 +496,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,6 +705,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -691,15 +749,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -711,6 +760,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,186 +802,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -942,9 +971,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -969,14 +995,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1300,14 +1332,14 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="6" max="6" width="51.8333333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="60.3333333333333" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" spans="1:8">
@@ -1332,154 +1364,158 @@
       <c r="G2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:8">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>44109</v>
       </c>
-      <c r="B4" s="10" t="str">
+      <c r="B4" s="9" t="str">
         <f>TEXT(A4,"aaaa")</f>
         <v>星期一</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>0.395833333333333</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>0.770833333333333</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>1</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" ht="19.5" spans="1:8">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>44110</v>
       </c>
-      <c r="B5" s="10" t="str">
+      <c r="B5" s="9" t="str">
         <f>TEXT(A5,"aaaa")</f>
         <v>星期二</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>0.395833333333333</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>0.770833333333333</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>1</v>
       </c>
-      <c r="H5" s="14"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:8">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>44111</v>
       </c>
-      <c r="B6" s="10" t="str">
+      <c r="B6" s="9" t="str">
         <f>TEXT(A6,"aaaa")</f>
         <v>星期三</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>0.395833333333333</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>0.770833333333333</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="G6" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:8">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>44112</v>
       </c>
-      <c r="B7" s="10" t="str">
+      <c r="B7" s="9" t="str">
         <f t="shared" ref="B7:B30" si="0">TEXT(A7,"aaaa")</f>
         <v>星期四</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>0.395833333333333</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>0.770833333333333</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="F7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:8">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>44113</v>
       </c>
-      <c r="B8" s="10" t="str">
+      <c r="B8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>星期五</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>0.395833333333333</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>0.770833333333333</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="F8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:8">
       <c r="A9" s="16">
@@ -1489,12 +1525,12 @@
         <f t="shared" si="0"/>
         <v>星期六</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:8">
       <c r="A10" s="16">
@@ -1504,432 +1540,431 @@
         <f t="shared" si="0"/>
         <v>星期日</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:8">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>44116</v>
       </c>
-      <c r="B11" s="10" t="str">
+      <c r="B11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>星期一</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>0.395833333333333</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>0.770833333333333</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="F11" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:8">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>44117</v>
       </c>
-      <c r="B12" s="10" t="str">
+      <c r="B12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>星期二</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>0.395833333333333</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>0.770833333333333</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="F12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:8">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>44118</v>
       </c>
-      <c r="B13" s="10" t="str">
+      <c r="B13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>星期三</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>0.395833333333333</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>0.770833333333333</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="F13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:8">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>44119</v>
       </c>
-      <c r="B14" s="10" t="str">
+      <c r="B14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>星期四</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>0.395833333333333</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>0.770833333333333</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="F14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:8">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>44120</v>
       </c>
-      <c r="B15" s="10" t="str">
+      <c r="B15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>星期五</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>0.395833333333333</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>0.770833333333333</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="F15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:8">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>44121</v>
       </c>
-      <c r="B16" s="10" t="str">
+      <c r="B16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>星期六</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:8">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>44122</v>
       </c>
-      <c r="B17" s="10" t="str">
+      <c r="B17" s="9" t="str">
         <f t="shared" si="0"/>
         <v>星期日</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:8">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>44123</v>
       </c>
-      <c r="B18" s="10" t="str">
+      <c r="B18" s="9" t="str">
         <f t="shared" si="0"/>
         <v>星期一</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>0.395833333333333</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>0.770833333333333</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="F18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:8">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>44124</v>
       </c>
-      <c r="B19" s="10" t="str">
+      <c r="B19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>星期二</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>0.395833333333333</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <v>0.770833333333333</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="F19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:8">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>44125</v>
       </c>
-      <c r="B20" s="10" t="str">
+      <c r="B20" s="9" t="str">
         <f t="shared" si="0"/>
         <v>星期三</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>0.395833333333333</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <v>0.770833333333333</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="F20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:8">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>44126</v>
       </c>
-      <c r="B21" s="10" t="str">
+      <c r="B21" s="9" t="str">
         <f t="shared" si="0"/>
         <v>星期四</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>0.395833333333333</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <v>0.770833333333333</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="F21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:8">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>44127</v>
       </c>
-      <c r="B22" s="10" t="str">
+      <c r="B22" s="9" t="str">
         <f t="shared" si="0"/>
         <v>星期五</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <v>0.395833333333333</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <v>0.770833333333333</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="F22" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:8">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>44128</v>
       </c>
-      <c r="B23" s="10" t="str">
+      <c r="B23" s="9" t="str">
         <f t="shared" si="0"/>
         <v>星期六</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:8">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>44129</v>
       </c>
-      <c r="B24" s="10" t="str">
+      <c r="B24" s="9" t="str">
         <f t="shared" si="0"/>
         <v>星期日</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:8">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>44130</v>
       </c>
-      <c r="B25" s="10" t="str">
+      <c r="B25" s="9" t="str">
         <f t="shared" si="0"/>
         <v>星期一</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="10">
         <v>0.395833333333333</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <v>0.770833333333333</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="F25" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:8">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>44131</v>
       </c>
-      <c r="B26" s="10" t="str">
+      <c r="B26" s="9" t="str">
         <f t="shared" si="0"/>
         <v>星期二</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="10">
         <v>0.395833333333333</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="10">
         <v>0.770833333333333</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="F26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:8">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>44132</v>
       </c>
-      <c r="B27" s="10" t="str">
+      <c r="B27" s="9" t="str">
         <f t="shared" si="0"/>
         <v>星期三</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="10">
         <v>0.395833333333333</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="10">
         <v>0.770833333333333</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="F27" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:8">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>44133</v>
       </c>
-      <c r="B28" s="10" t="str">
+      <c r="B28" s="9" t="str">
         <f t="shared" si="0"/>
         <v>星期四</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="10">
         <v>0.395833333333333</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="10">
         <v>0.770833333333333</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F28" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="F28" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:8">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>44134</v>
       </c>
-      <c r="B29" s="10" t="str">
+      <c r="B29" s="9" t="str">
         <f t="shared" si="0"/>
         <v>星期五</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <v>0.395833333333333</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="10">
         <v>0.770833333333333</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+      <c r="F29" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:8">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <v>44135</v>
       </c>
-      <c r="B30" s="10" t="str">
+      <c r="B30" s="9" t="str">
         <f t="shared" si="0"/>
         <v>星期六</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1"/>
@@ -1948,24 +1983,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1"/>
       <c r="F2" s="2"/>
@@ -1975,13 +2010,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -1990,25 +2025,45 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2016,6 +2071,8 @@
     <hyperlink ref="A5" r:id="rId2" display="https://www.youtube.com/watch?v=QuibtVULzkI&amp;list=PLmOn9nNkQxJGsB2yTYT9T2-pz9pCQzppd"/>
     <hyperlink ref="A11" r:id="rId3" display="https://edu.aliyun.com/course/469?spm=5176.10731542.0.0.1d7d4d48STKsLI"/>
     <hyperlink ref="A8" r:id="rId4" display="https://www.youtube.com/watch?v=w8ZxncrbwrQ&amp;list=PLmOn9nNkQxJFCeKeTP8MoTrGkmYMPkBD6"/>
+    <hyperlink ref="A13" r:id="rId5" display="Nodejs MongoDb Express 零基础 入门 实战 视频教程"/>
+    <hyperlink ref="A14" r:id="rId6" display="https://www.youtube.com/watch?v=awdmh8ePovU&amp;list=PL9nxfq1tlKKlcx425yrc-17LiY0lcQBeC&amp;index=20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/進捗/10月学習計画書_张咏晴.xlsx
+++ b/進捗/10月学習計画書_张咏晴.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>10月学習計画書</t>
   </si>
@@ -54,6 +54,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>【尚硅谷】NodeJS全套教程　</t>
     </r>
     <r>
@@ -68,14 +75,16 @@
   </si>
   <si>
     <r>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 1-5</t>
+    </r>
+    <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="MS Gothic"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 1-15</t>
+      <t>・</t>
     </r>
     <r>
       <rPr>
@@ -84,22 +93,24 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>・練習</t>
+      <t>練習</t>
     </r>
   </si>
   <si>
-    <t>【尚硅谷】NodeJS全套教程　11-15・練習——完成</t>
-  </si>
-  <si>
+    <t>【尚硅谷】NodeJS全套教程　11-15・練習</t>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 5-12</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="MS Gothic"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 16-30</t>
+      <t>・</t>
     </r>
     <r>
       <rPr>
@@ -108,19 +119,24 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>・練習</t>
+      <t>練習</t>
     </r>
   </si>
   <si>
+    <t>【尚硅谷】NodeJS全套教程　16-20・練習</t>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 12-25</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="MS Gothic"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 31-39</t>
+      <t>・</t>
     </r>
     <r>
       <rPr>
@@ -129,7 +145,30 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>・練習</t>
+      <t>練習</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 26-39</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
     </r>
   </si>
   <si>
@@ -282,11 +321,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -313,10 +352,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -335,7 +382,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,15 +403,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,46 +466,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,23 +481,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,11 +503,17 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="MS Gothic"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,19 +534,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,19 +648,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,139 +708,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,13 +737,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,8 +763,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -768,22 +806,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,152 +839,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -971,7 +1003,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -997,6 +1029,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1331,8 +1366,8 @@
   <sheetPr/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -1340,6 +1375,7 @@
     <col min="1" max="1" width="10.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="6" max="6" width="60.3333333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="39.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" spans="1:8">
@@ -1461,13 +1497,13 @@
       <c r="E6" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="15" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="H6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1488,11 +1524,15 @@
       <c r="E7" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="G7" s="12">
+        <v>1</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:8">
       <c r="A8" s="8">
@@ -1511,32 +1551,40 @@
       <c r="E8" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>16</v>
+      <c r="F8" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:8">
-      <c r="A9" s="16">
+      <c r="A9" s="17">
         <v>44114</v>
       </c>
-      <c r="B9" s="17" t="str">
+      <c r="B9" s="18" t="str">
         <f t="shared" si="0"/>
         <v>星期六</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
+      <c r="C9" s="10">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:8">
-      <c r="A10" s="16">
+      <c r="A10" s="17">
         <v>44115</v>
       </c>
-      <c r="B10" s="17" t="str">
+      <c r="B10" s="18" t="str">
         <f t="shared" si="0"/>
         <v>星期日</v>
       </c>
@@ -1564,8 +1612,8 @@
       <c r="E11" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>17</v>
+      <c r="F11" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -1588,7 +1636,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -1611,7 +1659,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -1634,7 +1682,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
@@ -1657,7 +1705,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
@@ -1709,7 +1757,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -1732,7 +1780,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -1755,7 +1803,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
@@ -1778,7 +1826,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
@@ -1801,7 +1849,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
@@ -1854,7 +1902,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
@@ -1877,7 +1925,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
@@ -1900,7 +1948,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
@@ -1923,7 +1971,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
@@ -1946,7 +1994,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
@@ -1993,14 +2041,14 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1"/>
       <c r="F2" s="2"/>
@@ -2010,13 +2058,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -2025,44 +2073,44 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/進捗/10月学習計画書_张咏晴.xlsx
+++ b/進捗/10月学習計画書_张咏晴.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>10月学習計画書</t>
   </si>
@@ -75,6 +75,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 1-5</t>
     </r>
     <r>
@@ -101,6 +108,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 5-12</t>
     </r>
     <r>
@@ -127,7 +141,7 @@
   </si>
   <si>
     <r>
-      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 12-25</t>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 12-20</t>
     </r>
     <r>
       <rPr>
@@ -150,7 +164,30 @@
   </si>
   <si>
     <r>
-      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 26-39</t>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 21-29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 30-39</t>
     </r>
     <r>
       <rPr>
@@ -321,11 +358,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -361,7 +398,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,16 +419,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,6 +449,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -419,14 +524,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -435,66 +532,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -534,19 +571,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,13 +733,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,139 +745,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,16 +774,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -755,8 +792,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,30 +839,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -821,16 +849,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -842,10 +879,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -854,16 +891,16 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -872,115 +909,115 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1367,7 +1404,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -1554,7 +1591,9 @@
       <c r="F8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="12">
+        <v>1</v>
+      </c>
       <c r="H8" s="13"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:8">
@@ -1577,7 +1616,9 @@
       <c r="F9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
       <c r="H9" s="13"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:8">
@@ -1591,8 +1632,12 @@
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="13"/>
+      <c r="F10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.5</v>
+      </c>
       <c r="H10" s="13"/>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:8">
@@ -1613,7 +1658,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -1636,7 +1681,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -1659,7 +1704,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -1682,7 +1727,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
@@ -1705,7 +1750,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
@@ -1757,7 +1802,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -1780,7 +1825,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -1803,7 +1848,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
@@ -1826,7 +1871,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
@@ -1849,7 +1894,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
@@ -1902,7 +1947,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
@@ -1925,7 +1970,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
@@ -1948,7 +1993,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
@@ -1971,7 +2016,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
@@ -1994,7 +2039,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
@@ -2041,14 +2086,14 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1"/>
       <c r="F2" s="2"/>
@@ -2058,13 +2103,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -2073,44 +2118,44 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/進捗/10月学習計画書_张咏晴.xlsx
+++ b/進捗/10月学習計画書_张咏晴.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>10月学習計画書</t>
   </si>
@@ -141,7 +141,7 @@
   </si>
   <si>
     <r>
-      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 12-20</t>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 12-18</t>
     </r>
     <r>
       <rPr>
@@ -164,7 +164,7 @@
   </si>
   <si>
     <r>
-      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 21-29</t>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 19-25</t>
     </r>
     <r>
       <rPr>
@@ -187,7 +187,7 @@
   </si>
   <si>
     <r>
-      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 30-39</t>
+      <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 26-32</t>
     </r>
     <r>
       <rPr>
@@ -209,7 +209,7 @@
     </r>
   </si>
   <si>
-    <t>API作成(crud)</t>
+    <t>練習（login画面作成）(ビデオ会議予定)</t>
   </si>
   <si>
     <r>
@@ -233,6 +233,9 @@
     </r>
   </si>
   <si>
+    <t>事休</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -296,9 +299,6 @@
     </r>
   </si>
   <si>
-    <t>復習</t>
-  </si>
-  <si>
     <t>【尚硅谷】Bootstrap全套教程 理论+实战　1-10・練習</t>
   </si>
   <si>
@@ -358,10 +358,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="25">
@@ -392,6 +392,87 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -404,32 +485,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -441,97 +532,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -571,43 +571,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,133 +733,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,30 +774,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -809,17 +785,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,7 +808,40 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -865,9 +863,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,148 +876,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1403,8 +1403,8 @@
   <sheetPr/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -1613,12 +1613,8 @@
       <c r="E9" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="12">
-        <v>1</v>
-      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="13"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:8">
@@ -1632,12 +1628,8 @@
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0.5</v>
-      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="13"/>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:8">
@@ -1657,10 +1649,12 @@
       <c r="E11" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="13"/>
+      <c r="F11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="12">
+        <v>1</v>
+      </c>
       <c r="H11" s="13"/>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:8">
@@ -1680,10 +1674,12 @@
       <c r="E12" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="13"/>
+      <c r="F12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1</v>
+      </c>
       <c r="H12" s="13"/>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:8">
@@ -1703,10 +1699,12 @@
       <c r="E13" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="13"/>
+      <c r="F13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
       <c r="H13" s="13"/>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:8">
@@ -1727,7 +1725,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
@@ -1740,17 +1738,11 @@
         <f t="shared" si="0"/>
         <v>星期五</v>
       </c>
-      <c r="C15" s="10">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0.770833333333333</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>24</v>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
@@ -1763,10 +1755,18 @@
         <f t="shared" si="0"/>
         <v>星期六</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
+      <c r="C16" s="10">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
     </row>
@@ -1802,7 +1802,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -1825,7 +1825,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -1848,7 +1848,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
@@ -1871,7 +1871,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
@@ -1894,7 +1894,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>

--- a/進捗/10月学習計画書_张咏晴.xlsx
+++ b/進捗/10月学習計画書_张咏晴.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>10月学習計画書</t>
   </si>
@@ -141,6 +141,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 12-18</t>
     </r>
     <r>
@@ -164,6 +171,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 19-25</t>
     </r>
     <r>
@@ -187,6 +201,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Nodejs MongoDb Express 零基础 入门 实战 视频教程 26-32</t>
     </r>
     <r>
@@ -213,14 +234,16 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>React系列课程从零基础到项目开发实战 1-21</t>
+      <t>React系列课程从零基础到项目开发实战 1-15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
     </r>
     <r>
       <rPr>
@@ -229,7 +252,7 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>・練習</t>
+      <t>練習</t>
     </r>
   </si>
   <si>
@@ -237,14 +260,16 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>React系列课程从零基础到项目开发实战 22-47</t>
+      <t>React系列课程从零基础到项目开发实战 16-30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
     </r>
     <r>
       <rPr>
@@ -253,19 +278,21 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>・練習</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>React系列课程从零基础到项目开发实战 48-63</t>
+      <t>練習</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 31-45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
     </r>
     <r>
       <rPr>
@@ -274,19 +301,21 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>・練習</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>React系列课程从零基础到项目开发实战 64-83</t>
+      <t>練習</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 46-60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
     </r>
     <r>
       <rPr>
@@ -295,7 +324,53 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>・練習</t>
+      <t>練習</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 61-75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 76-83</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
     </r>
   </si>
   <si>
@@ -358,10 +433,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="25">
@@ -389,10 +464,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -418,6 +524,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -426,50 +600,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -477,61 +607,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -571,19 +646,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,13 +784,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,31 +796,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,103 +820,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,17 +849,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,25 +888,42 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -845,179 +946,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1403,8 +1478,8 @@
   <sheetPr/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -1724,10 +1799,12 @@
       <c r="E14" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
       <c r="H14" s="13"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:8">
@@ -1764,10 +1841,12 @@
       <c r="E16" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="13"/>
+      <c r="G16" s="12">
+        <v>1</v>
+      </c>
       <c r="H16" s="13"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:8">
@@ -1778,9 +1857,18 @@
         <f t="shared" si="0"/>
         <v>星期日</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="C17" s="10">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
@@ -1801,8 +1889,8 @@
       <c r="E18" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>24</v>
+      <c r="F18" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -1824,8 +1912,8 @@
       <c r="E19" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>25</v>
+      <c r="F19" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -1847,8 +1935,8 @@
       <c r="E20" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>26</v>
+      <c r="F20" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
@@ -1871,7 +1959,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
@@ -1894,7 +1982,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
@@ -1907,10 +1995,18 @@
         <f t="shared" si="0"/>
         <v>星期六</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
+      <c r="C23" s="10">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
     </row>
@@ -1922,10 +2018,18 @@
         <f t="shared" si="0"/>
         <v>星期日</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
+      <c r="C24" s="10">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
     </row>
@@ -1947,7 +2051,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
@@ -1970,7 +2074,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
@@ -1993,7 +2097,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
@@ -2016,7 +2120,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
@@ -2039,7 +2143,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
@@ -2086,14 +2190,14 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1"/>
       <c r="F2" s="2"/>
@@ -2103,13 +2207,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -2118,44 +2222,44 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/進捗/10月学習計画書_张咏晴.xlsx
+++ b/進捗/10月学習計画書_张咏晴.xlsx
@@ -234,6 +234,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>React系列课程从零基础到项目开发实战 1-15</t>
     </r>
     <r>
@@ -260,6 +267,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>React系列课程从零基础到项目开发实战 16-30</t>
     </r>
     <r>
@@ -283,6 +297,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>React系列课程从零基础到项目开发实战 31-45</t>
     </r>
     <r>
@@ -306,6 +327,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>React系列课程从零基础到项目开发实战 46-60</t>
     </r>
     <r>
@@ -329,6 +357,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>React系列课程从零基础到项目开发实战 61-75</t>
     </r>
     <r>
@@ -352,6 +387,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>React系列课程从零基础到项目开发实战 76-83</t>
     </r>
     <r>
@@ -433,10 +475,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="25">
@@ -464,6 +506,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -472,6 +565,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -480,10 +612,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -496,27 +629,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -524,89 +649,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -646,55 +688,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,115 +856,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,26 +891,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -903,27 +936,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -941,6 +963,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -951,148 +993,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1479,7 +1521,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -1869,7 +1911,9 @@
       <c r="F17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="13"/>
+      <c r="G17" s="12">
+        <v>1</v>
+      </c>
       <c r="H17" s="13"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:8">
@@ -1892,7 +1936,9 @@
       <c r="F18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="13"/>
+      <c r="G18" s="12">
+        <v>1</v>
+      </c>
       <c r="H18" s="13"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:8">
@@ -1915,7 +1961,9 @@
       <c r="F19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="13"/>
+      <c r="G19" s="12">
+        <v>0.5</v>
+      </c>
       <c r="H19" s="13"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:8">

--- a/進捗/10月学習計画書_张咏晴.xlsx
+++ b/進捗/10月学習計画書_张咏晴.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>10月学習計画書</t>
   </si>
@@ -357,14 +357,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>React系列课程从零基础到项目开发实战 61-75</t>
+      <t>React系列课程从零基础到项目开发实战 61-67</t>
     </r>
     <r>
       <rPr>
@@ -387,14 +380,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>React系列课程从零基础到项目开发实战 76-83</t>
+      <t>React系列课程从零基础到项目开发实战 68-72</t>
     </r>
     <r>
       <rPr>
@@ -416,22 +402,62 @@
     </r>
   </si>
   <si>
+    <t>宿題作成　　60%</t>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 73-78</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+  </si>
+  <si>
+    <t>宿題作成　　100%</t>
+  </si>
+  <si>
+    <r>
+      <t>React系列课程从零基础到项目开发实战 79-83</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>練習</t>
+    </r>
+  </si>
+  <si>
     <t>【尚硅谷】Bootstrap全套教程 理论+实战　1-10・練習</t>
   </si>
   <si>
     <t>【尚硅谷】Bootstrap全套教程 理论+实战　11-17・練習</t>
-  </si>
-  <si>
-    <t>詳細設計作成</t>
-  </si>
-  <si>
-    <t>プログラム作成</t>
-  </si>
-  <si>
-    <t>単体試験・結合試験</t>
-  </si>
-  <si>
-    <t>発表会を行う</t>
   </si>
   <si>
     <t>【尚硅谷】NodeJS全套教程</t>
@@ -475,10 +501,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="25">
@@ -520,6 +546,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -527,8 +576,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,10 +614,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -557,15 +630,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -574,7 +645,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -583,6 +654,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,59 +675,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -688,181 +714,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,6 +918,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -906,17 +971,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,35 +995,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,15 +1014,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -996,10 +1022,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1008,16 +1034,16 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1026,115 +1052,115 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1520,8 +1546,8 @@
   <sheetPr/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -1962,7 +1988,7 @@
         <v>26</v>
       </c>
       <c r="G19" s="12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H19" s="13"/>
     </row>
@@ -1986,8 +2012,12 @@
       <c r="F20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="G20" s="12">
+        <v>1</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:8">
       <c r="A21" s="8">
@@ -2006,11 +2036,15 @@
       <c r="E21" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="F21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="12">
+        <v>1</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:8">
       <c r="A22" s="8">
@@ -2029,8 +2063,8 @@
       <c r="E22" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>29</v>
+      <c r="F22" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
@@ -2052,9 +2086,7 @@
       <c r="E23" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="F23" s="11"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
     </row>
@@ -2075,9 +2107,7 @@
       <c r="E24" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>31</v>
-      </c>
+      <c r="F24" s="15"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
     </row>
@@ -2099,7 +2129,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
@@ -2122,7 +2152,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
@@ -2144,9 +2174,7 @@
       <c r="E27" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>31</v>
-      </c>
+      <c r="F27" s="11"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
     </row>
@@ -2167,9 +2195,7 @@
       <c r="E28" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="F28" s="11"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
@@ -2190,9 +2216,7 @@
       <c r="E29" s="10">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="F29" s="11"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
     </row>
